--- a/output/image2/synapseData.xlsx
+++ b/output/image2/synapseData.xlsx
@@ -39257,7 +39257,7 @@
         <v>1085</v>
       </c>
       <c r="C1849" t="n">
-        <v>10.49269991197851</v>
+        <v>10.4926999119785</v>
       </c>
       <c r="D1849" t="inlineStr">
         <is>
